--- a/test_data/plan_configuration.xlsx
+++ b/test_data/plan_configuration.xlsx
@@ -546,7 +546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,6 +586,16 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Density</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/test_data/plan_configuration.xlsx
+++ b/test_data/plan_configuration.xlsx
@@ -7,9 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Speed" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Target" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Metadata" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Dataset" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Speed" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Target" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Metadata" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -419,6 +420,56 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Average sets</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Summation sets</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Cut</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Dure</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Mo</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -471,7 +522,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -540,13 +591,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,6 +647,26 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Number of average items</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Number of summation items</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/test_data/plan_configuration.xlsx
+++ b/test_data/plan_configuration.xlsx
@@ -643,8 +643,10 @@
           <t>Density</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>7</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Density</t>
+        </is>
       </c>
     </row>
     <row r="5">
